--- a/excels/Modern Staples MTG  MTGO Price History2021-05-10.xlsx
+++ b/excels/Modern Staples MTG  MTGO Price History2021-05-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1318,111 +1318,111 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kroxa, Titan of Death's Hunger</t>
+          <t>Reflecting Pool</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>SHM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>+0.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>+2.00%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Reflecting Pool</t>
+          <t>Wurmcoil Engine</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SHM</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+0.60</t>
+          <t>+0.74</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>+2.00%</t>
+          <t>+3.00%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>+1.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+4.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wurmcoil Engine</t>
+          <t>Steelshaper's Gift</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>5DN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28.22</t>
+          <t>27.91</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+0.74</t>
+          <t>+0.88</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1432,66 +1432,66 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+1.00</t>
+          <t>+0.29</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+4.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Steelshaper's Gift</t>
+          <t>Surgical Extraction</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5DN</t>
+          <t>MM2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+0.88</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>+3.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+0.29</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Surgical Extraction</t>
+          <t>Mana Confluence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MM2</t>
+          <t>JOU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,81 +1501,81 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>+0.27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mana Confluence</t>
+          <t>Archangel of Thune</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JOU</t>
+          <t>M14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+0.27</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Archangel of Thune</t>
+          <t>Gemstone Caverns</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M14</t>
+          <t>TSR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,54 +1585,54 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>+0.02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>-2.00%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-2.09</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gemstone Caverns</t>
+          <t>Inkmoth Nexus</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TSR</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26.34</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+0.02</t>
+          <t>+0.09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,12 +1654,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inkmoth Nexus</t>
+          <t>Cryptic Command</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>MM2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,123 +1669,123 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+0.09</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cryptic Command</t>
+          <t>Horizon Canopy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MM2</t>
+          <t>ZNE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Horizon Canopy</t>
+          <t>Blood Crypt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZNE</t>
+          <t>RTR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>22.99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blood Crypt</t>
+          <t>Blackcleave Cliffs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RTR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22.99</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1810,24 +1810,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-4.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Blackcleave Cliffs</t>
+          <t>Archive Trap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>PLIST</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>19.97</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1852,66 +1852,66 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Archive Trap</t>
+          <t>As Foretold</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLIST</t>
+          <t>AKH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>18.84</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>As Foretold</t>
+          <t>Trinisphere</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AKH</t>
+          <t>2XM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1926,29 +1926,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Trinisphere</t>
+          <t>Ensnaring Bridge</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>+0.01</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ensnaring Bridge</t>
+          <t>Phantasmal Image</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2XM</t>
+          <t>MM3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2020,108 +2020,108 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Phantasmal Image</t>
+          <t>Vesuva</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MM3</t>
+          <t>TSR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>17.82</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+0.01</t>
+          <t>+0.33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+2.00%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vesuva</t>
+          <t>Pillar of the Paruns</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TSR</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+0.33</t>
+          <t>+0.77</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>+2.00%</t>
+          <t>+5.00%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>+1.96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>+13.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pillar of the Paruns</t>
+          <t>Thoughtseize</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>THS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+0.77</t>
+          <t>+0.05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>+5.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>+1.96</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>+13.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Thoughtseize</t>
+          <t>Noble Hierarch</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>THS</t>
+          <t>2XM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17.55</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,12 +2200,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Noble Hierarch</t>
+          <t>Dryad of the Ilysian Grove</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2XM</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,39 +2215,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>+0.13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dryad of the Ilysian Grove</t>
+          <t>Flusterstorm</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Flusterstorm</t>
+          <t>Pact of Negation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>TSR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16.17</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>+0.30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>+2.00%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-4.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pact of Negation</t>
+          <t>Overgrown Tomb</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TSR</t>
+          <t>RTR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,123 +2341,123 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+0.30</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>+2.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Overgrown Tomb</t>
+          <t>Brazen BorrowerPlaneswalker Stamp</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RTR</t>
+          <t>PELD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazen BorrowerPlaneswalker Stamp</t>
+          <t>Minamo, School at Water's EdgeFoil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PELD</t>
+          <t>FMB1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>+0.02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Minamo, School at Water's EdgeFoil</t>
+          <t>Teferi, Time Raveler</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FMB1</t>
+          <t>WAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+0.02</t>
+          <t>+0.06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Teferi, Time Raveler</t>
+          <t>Glimpse the Unthinkable</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WAR</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>+0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2524,24 +2524,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Glimpse the Unthinkable</t>
+          <t>Archmage's Charm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>MH1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>+2.25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+23.00%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>+5.16</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>+73.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Archmage's Charm</t>
+          <t>Temple Garden</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MH1</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,39 +2593,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>+2.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>+23.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+5.16</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>+73.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Temple Garden</t>
+          <t>Thassa's Oracle</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,123 +2635,123 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>+0.14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Thassa's Oracle</t>
+          <t>Scourge of the Skyclaves</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>ZNR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>+0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Scourge of the Skyclaves</t>
+          <t>Kolaghan's Command</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZNR</t>
+          <t>DTK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kolaghan's Command</t>
+          <t>Thalia, Guardian of Thraben</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DTK</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>+0.17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>+2.00%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Thalia, Guardian of Thraben</t>
+          <t>Stomping Ground</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DKA</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>+0.17</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>+2.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Stomping Ground</t>
+          <t>Birds of Paradise</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,123 +2845,123 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>+0.43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+4.00%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-8.00%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Birds of Paradise</t>
+          <t>Kozilek's Return</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>OGW</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+0.43</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>+4.00%</t>
+          <t>-8.00%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-8.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kozilek's Return</t>
+          <t>Force of Vigor</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>OGW</t>
+          <t>MH1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>+0.05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-8.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-4.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Force of Vigor</t>
+          <t>Ketria TriomePlaneswalker Stamp</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MH1</t>
+          <t>IKO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>+0.05</t>
+          <t>+0.25</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+3.00%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ketria TriomePlaneswalker Stamp</t>
+          <t>Bloodghast</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IKO</t>
+          <t>PLIST</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,81 +3013,81 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+0.25</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>+3.00%</t>
+          <t>-17.00%</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-4.00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-29.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bloodghast</t>
+          <t>Klothys, God of DestinyShowcase</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PLIST</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>+0.04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-17.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-4.00</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-29.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Klothys, God of DestinyShowcase</t>
+          <t>Primeval Titan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+0.05</t>
+          <t>+0.11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3112,66 +3112,66 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Primeval Titan</t>
+          <t>Silent Clearing</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>MH1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+0.11</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Silent Clearing</t>
+          <t>Academy Ruins</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MH1</t>
+          <t>2XM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>-2.00%</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Academy Ruins</t>
+          <t>Spell Queller</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2XM</t>
+          <t>EMN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>+0.04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-6.00%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Spell Queller</t>
+          <t>Ice-Fang Coatl</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EMN</t>
+          <t>PLIST</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,96 +3265,96 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+0.04</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-6.00%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ice-Fang Coatl</t>
+          <t>Chandra, Torch of Defiance</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLIST</t>
+          <t>SS3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chandra, Torch of Defiance</t>
+          <t>Supreme Verdict</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SS3</t>
+          <t>MB1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3364,24 +3364,24 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Supreme Verdict</t>
+          <t>Shelldock Isle</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MB1</t>
+          <t>PLIST</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,39 +3391,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>+0.03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-6.00%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Shelldock Isle</t>
+          <t>Underworld Breach</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLIST</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3448,24 +3448,24 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-6.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Underworld Breach</t>
+          <t>Castle Garenbrig</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>ELD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>+0.03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3490,24 +3490,24 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Castle Garenbrig</t>
+          <t>Death's Shadow</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ELD</t>
+          <t>2XM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3517,22 +3517,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>+0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,12 +3544,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Death's Shadow</t>
+          <t>Razorverge Thicket</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2XM</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,232 +3586,232 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Razorverge Thicket</t>
+          <t>Ox of Agonas</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ox of Agonas</t>
+          <t>Glacial Fortress</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>+0.03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>+1.00%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>-2.00%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Glacial Fortress</t>
+          <t>Remand</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M11</t>
+          <t>MM2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+0.03</t>
+          <t>+0.01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Remand</t>
+          <t>Ramunap ExcavatorPrecon</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MM2</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>+0.01</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ramunap ExcavatorPrecon</t>
+          <t>Ancient Ziggurat</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>MB1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ancient Ziggurat</t>
+          <t>Dryad Arbor</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MB1</t>
+          <t>TSR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3826,34 +3826,34 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-5.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Dryad Arbor</t>
+          <t>Boil</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TSR</t>
+          <t>6ED</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3868,91 +3868,91 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Boil</t>
+          <t>Turntimber Symbiosis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6ED</t>
+          <t>ZNR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Turntimber Symbiosis</t>
+          <t>Sigarda's AidPrecon</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZNR</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>+0.01</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3964,96 +3964,96 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sigarda's AidPrecon</t>
+          <t>Monastery Swiftspear</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>KTK</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>+0.01</t>
+          <t>+0.04</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-4.00%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Monastery Swiftspear</t>
+          <t>Supreme Phantom</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KTK</t>
+          <t>M19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>+0.04</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>+1.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-14.00%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Supreme Phantom</t>
+          <t>Stormwing Entity</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>M19</t>
+          <t>M21</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4078,24 +4078,24 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-14.00%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Stormwing Entity</t>
+          <t>Tale's End</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>M21</t>
+          <t>M20</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,22 +4105,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-1.00%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tale's End</t>
+          <t>Vanishing Verse</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M20</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>+0.02</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>+1.00%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vanishing Verse</t>
+          <t>Castle Ardenvale</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ELD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,17 +4189,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>+0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-2.00%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4209,19 +4209,19 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-4.00%</t>
+          <t>-5.00%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Castle Ardenvale</t>
+          <t>Phyrexian Revoker</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ELD</t>
+          <t>2XM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,67 +4231,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-2.00%</t>
+          <t>-4.00%</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
-        <is>
-          <t>-5.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Phyrexian Revoker</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2XM</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-4.00%</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>-12.00%</t>
         </is>
